--- a/AttendeesCredentials.xlsx
+++ b/AttendeesCredentials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sobordia\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C9C5CF0-5D8B-4DEF-8647-62C535B95A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9700922A-E601-40AF-B9D1-508D4CD62519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{D3D01BC1-119C-493D-ABBE-23B1333D7D0D}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="252">
   <si>
     <t>Participant Name</t>
   </si>
@@ -737,6 +737,63 @@
   </si>
   <si>
     <t>https://healthcareindustrylabs-60-060122.crm.dynamics.com</t>
+  </si>
+  <si>
+    <t>IADUser45@PowerPlatformOpenHacks.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>Rizwan</t>
+  </si>
+  <si>
+    <t>Shabir</t>
+  </si>
+  <si>
+    <t>IADUser46@PowerPlatformOpenHacks.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>IADUser47@PowerPlatformOpenHacks.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>IADUser49@PowerPlatformOpenHacks.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>IADUser50@PowerPlatformOpenHacks.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>IADUser51@PowerPlatformOpenHacks.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>IADUser52@PowerPlatformOpenHacks.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>IADUser53@PowerPlatformOpenHacks.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>IADUser54@PowerPlatformOpenHacks.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>IADUser55@PowerPlatformOpenHacks.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>IADUser56@PowerPlatformOpenHacks.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>IADUser57@PowerPlatformOpenHacks.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>IADUser58@PowerPlatformOpenHacks.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>IADUser59@PowerPlatformOpenHacks.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>IADUser60@PowerPlatformOpenHacks.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>IADUser65@PowerPlatformOpenHacks.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>IADUser66@PowerPlatformOpenHacks.onmicrosoft.com</t>
   </si>
 </sst>
 </file>
@@ -788,7 +845,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -839,12 +896,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -854,6 +931,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1169,10 +1248,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCCA859-12C2-4F8F-A8C6-F82C1A569E40}">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2007,8 +2086,8 @@
       <c r="B49" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>176</v>
+      <c r="C49" s="8" t="s">
+        <v>233</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>8</v>
@@ -2024,8 +2103,8 @@
       <c r="B50" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>180</v>
+      <c r="C50" s="8" t="s">
+        <v>236</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>8</v>
@@ -2041,8 +2120,8 @@
       <c r="B51" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>176</v>
+      <c r="C51" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>8</v>
@@ -2058,8 +2137,8 @@
       <c r="B52" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>180</v>
+      <c r="C52" s="8" t="s">
+        <v>233</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>8</v>
@@ -2075,8 +2154,8 @@
       <c r="B53" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>176</v>
+      <c r="C53" s="8" t="s">
+        <v>238</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>8</v>
@@ -2092,8 +2171,8 @@
       <c r="B54" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>180</v>
+      <c r="C54" s="7" t="s">
+        <v>239</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>8</v>
@@ -2109,8 +2188,8 @@
       <c r="B55" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>176</v>
+      <c r="C55" s="7" t="s">
+        <v>240</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>8</v>
@@ -2126,8 +2205,8 @@
       <c r="B56" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>180</v>
+      <c r="C56" s="7" t="s">
+        <v>241</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>8</v>
@@ -2143,8 +2222,8 @@
       <c r="B57" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>176</v>
+      <c r="C57" s="7" t="s">
+        <v>242</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>8</v>
@@ -2160,8 +2239,8 @@
       <c r="B58" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>180</v>
+      <c r="C58" s="7" t="s">
+        <v>243</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>8</v>
@@ -2177,8 +2256,8 @@
       <c r="B59" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>176</v>
+      <c r="C59" s="7" t="s">
+        <v>244</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>8</v>
@@ -2194,8 +2273,8 @@
       <c r="B60" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>180</v>
+      <c r="C60" s="7" t="s">
+        <v>245</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>8</v>
@@ -2211,8 +2290,8 @@
       <c r="B61" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>176</v>
+      <c r="C61" s="7" t="s">
+        <v>246</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>8</v>
@@ -2228,8 +2307,8 @@
       <c r="B62" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>180</v>
+      <c r="C62" s="7" t="s">
+        <v>247</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>8</v>
@@ -2245,8 +2324,8 @@
       <c r="B63" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>176</v>
+      <c r="C63" s="7" t="s">
+        <v>248</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>8</v>
@@ -2262,14 +2341,36 @@
       <c r="B64" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>180</v>
+      <c r="C64" s="8" t="s">
+        <v>249</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>232</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B65">
+        <v>65</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B66">
+        <v>66</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -2296,7 +2397,28 @@
     <hyperlink ref="E62" r:id="rId15" xr:uid="{12DF6DE6-E292-4A70-9082-FF57550D4601}"/>
     <hyperlink ref="E63" r:id="rId16" xr:uid="{CCF6740D-904E-4CED-B9B4-34C639BC25EC}"/>
     <hyperlink ref="E64" r:id="rId17" xr:uid="{E6A785D6-4523-4BF4-8D14-AAF325BB4E02}"/>
+    <hyperlink ref="C64" r:id="rId18" xr:uid="{215DE376-A94A-4CE1-B36C-9B2857883999}"/>
+    <hyperlink ref="C52" r:id="rId19" xr:uid="{0F99BCD9-0C76-4543-9242-9E5CB756831B}"/>
+    <hyperlink ref="C49" r:id="rId20" xr:uid="{F8DDB85F-518D-499B-B051-FD63975B2244}"/>
+    <hyperlink ref="C50" r:id="rId21" xr:uid="{4E16DDD2-F00C-46A0-B97D-A60317945CCD}"/>
+    <hyperlink ref="C51" r:id="rId22" xr:uid="{CD9808CC-1BF3-436A-B81E-31C17C02D45C}"/>
+    <hyperlink ref="C53" r:id="rId23" xr:uid="{78C56730-3265-45F8-8A2E-D78F20EC0B3E}"/>
+    <hyperlink ref="C54" r:id="rId24" xr:uid="{2866154C-ABFC-4091-9C01-A69279AC2B40}"/>
+    <hyperlink ref="C55:C63" r:id="rId25" display="IADUser50@PowerPlatformOpenHacks.onmicrosoft.com" xr:uid="{B39D7925-99AF-4757-A093-BAF8DEF7C971}"/>
+    <hyperlink ref="C55" r:id="rId26" xr:uid="{643AC267-02D1-42F4-A32A-53076583B907}"/>
+    <hyperlink ref="C56" r:id="rId27" xr:uid="{766EE5BE-FAA0-4B4D-B472-4AAAEEB7491A}"/>
+    <hyperlink ref="C57" r:id="rId28" xr:uid="{314D81FE-4012-4D8A-A41E-AD7EE6C3B25D}"/>
+    <hyperlink ref="C58" r:id="rId29" xr:uid="{5178B43B-13E5-4E35-B9D1-DE85D0B2BEFC}"/>
+    <hyperlink ref="C59" r:id="rId30" xr:uid="{7EB27A13-5F35-40DA-A0E0-7F82792206A6}"/>
+    <hyperlink ref="C60" r:id="rId31" xr:uid="{847E236E-B2DB-4BA4-AA48-A048B98F8547}"/>
+    <hyperlink ref="C61" r:id="rId32" xr:uid="{3CE6A78E-2330-423A-83C1-FD22FDFE275F}"/>
+    <hyperlink ref="C62" r:id="rId33" xr:uid="{EDEB7D1C-B607-4560-91D2-999323CF1F40}"/>
+    <hyperlink ref="C63" r:id="rId34" xr:uid="{7E13E694-A348-4084-8392-82A7BB9CEEAF}"/>
+    <hyperlink ref="C65:C66" r:id="rId35" display="IADUser60@PowerPlatformOpenHacks.onmicrosoft.com" xr:uid="{99027690-8FD5-4ED0-833C-DD7C38F7807A}"/>
+    <hyperlink ref="C65" r:id="rId36" xr:uid="{22043136-13AD-4EB9-AE56-5479270B5FE6}"/>
+    <hyperlink ref="C66" r:id="rId37" xr:uid="{6038D053-0D5B-47B8-83A3-56AA0BDF89DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId38"/>
 </worksheet>
 </file>